--- a/outcome/appendix/data/0_impact/Mumps.xlsx
+++ b/outcome/appendix/data/0_impact/Mumps.xlsx
@@ -409,13 +409,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>22606.8722585343</v>
+        <v>22830.5164751268</v>
       </c>
       <c r="C2" t="n">
-        <v>16526.1051275052</v>
+        <v>17444.6643711207</v>
       </c>
       <c r="D2" t="n">
-        <v>15024.1302934886</v>
+        <v>15251.7274150679</v>
       </c>
       <c r="E2" t="n">
         <v>29357.898481522</v>
@@ -435,19 +435,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>14482.1251569825</v>
+        <v>14574.2965097588</v>
       </c>
       <c r="C3" t="n">
-        <v>6062.65792304852</v>
+        <v>-73469.2535968141</v>
       </c>
       <c r="D3" t="n">
-        <v>2229.51115794829</v>
+        <v>-119700.687206175</v>
       </c>
       <c r="E3" t="n">
-        <v>22814.4807643352</v>
+        <v>101197.260342237</v>
       </c>
       <c r="F3" t="n">
-        <v>26270.2725156882</v>
+        <v>147428.693951598</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -461,19 +461,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>20042.1687322498</v>
+        <v>20235.9388496846</v>
       </c>
       <c r="C4" t="n">
-        <v>12480.7480376954</v>
+        <v>-4602400.77208892</v>
       </c>
       <c r="D4" t="n">
-        <v>8267.25795019561</v>
+        <v>-7050136.09305064</v>
       </c>
       <c r="E4" t="n">
-        <v>29377.1902843463</v>
+        <v>4645363.4043459</v>
       </c>
       <c r="F4" t="n">
-        <v>33609.5822634936</v>
+        <v>7093098.72530762</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -487,19 +487,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>28183.5260102596</v>
+        <v>28272.1440824491</v>
       </c>
       <c r="C5" t="n">
-        <v>18731.9895400553</v>
+        <v>-229328535.957533</v>
       </c>
       <c r="D5" t="n">
-        <v>14720.5210952179</v>
+        <v>-350744480.544576</v>
       </c>
       <c r="E5" t="n">
-        <v>42044.4799304933</v>
+        <v>229391822.074838</v>
       </c>
       <c r="F5" t="n">
-        <v>47550.6597519313</v>
+        <v>350807766.66188</v>
       </c>
       <c r="G5" t="s">
         <v>8</v>
@@ -513,19 +513,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>35764.383495016</v>
+        <v>35734.0999426504</v>
       </c>
       <c r="C6" t="n">
-        <v>21365.6304685582</v>
+        <v>-9185639531.29438</v>
       </c>
       <c r="D6" t="n">
-        <v>18121.6236881342</v>
+        <v>-14048245390.8242</v>
       </c>
       <c r="E6" t="n">
-        <v>56940.725791117</v>
+        <v>9185722718.0414</v>
       </c>
       <c r="F6" t="n">
-        <v>65065.1233310974</v>
+        <v>14048328577.5712</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -539,19 +539,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>35784.4334028449</v>
+        <v>35977.0682695469</v>
       </c>
       <c r="C7" t="n">
-        <v>19546.0746538437</v>
+        <v>-194483738624.244</v>
       </c>
       <c r="D7" t="n">
-        <v>16058.3995853314</v>
+        <v>-297437233311.45</v>
       </c>
       <c r="E7" t="n">
-        <v>59513.2607389344</v>
+        <v>194483823290.513</v>
       </c>
       <c r="F7" t="n">
-        <v>68607.870040302</v>
+        <v>297437317977.72</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -565,19 +565,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>28312.4396842679</v>
+        <v>28669.8136616315</v>
       </c>
       <c r="C8" t="n">
-        <v>15635.0592484335</v>
+        <v>-4536302262751.96</v>
       </c>
       <c r="D8" t="n">
-        <v>11126.3728592569</v>
+        <v>-6937675642644.89</v>
       </c>
       <c r="E8" t="n">
-        <v>49016.6861309904</v>
+        <v>4536302330825.03</v>
       </c>
       <c r="F8" t="n">
-        <v>56946.6987087493</v>
+        <v>6937675710717.96</v>
       </c>
       <c r="G8" t="s">
         <v>8</v>
@@ -591,19 +591,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>19530.4287271111</v>
+        <v>19585.5958349525</v>
       </c>
       <c r="C9" t="n">
-        <v>8248.7772130938</v>
+        <v>-70540059866312</v>
       </c>
       <c r="D9" t="n">
-        <v>1337.45548369192</v>
+        <v>-107881711931193</v>
       </c>
       <c r="E9" t="n">
-        <v>34360.3722673605</v>
+        <v>70540059906940.8</v>
       </c>
       <c r="F9" t="n">
-        <v>41271.6939967624</v>
+        <v>107881711971822</v>
       </c>
       <c r="G9" t="s">
         <v>8</v>
@@ -617,19 +617,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>18717.2087784876</v>
+        <v>18813.4041301688</v>
       </c>
       <c r="C10" t="n">
-        <v>6113.37723857901</v>
+        <v>-1128006608823504</v>
       </c>
       <c r="D10" t="n">
-        <v>-1217.17617052546</v>
+        <v>-1725137237602717</v>
       </c>
       <c r="E10" t="n">
-        <v>33808.8672818092</v>
+        <v>1128006608858356</v>
       </c>
       <c r="F10" t="n">
-        <v>41139.4206909137</v>
+        <v>1725137237637570</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -643,19 +643,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>20965.1567955847</v>
+        <v>21090.1800350602</v>
       </c>
       <c r="C11" t="n">
-        <v>6896.20783173796</v>
+        <v>-35698070706760364</v>
       </c>
       <c r="D11" t="n">
-        <v>-830.865257094808</v>
+        <v>-54595487832044984</v>
       </c>
       <c r="E11" t="n">
-        <v>36089.7848854551</v>
+        <v>35698070706801148</v>
       </c>
       <c r="F11" t="n">
-        <v>43816.8579742879</v>
+        <v>54595487832085768</v>
       </c>
       <c r="G11" t="s">
         <v>8</v>
@@ -669,19 +669,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>24307.2865163449</v>
+        <v>24558.812570023</v>
       </c>
       <c r="C12" t="n">
-        <v>10168.0823353396</v>
+        <v>-893224785484605568</v>
       </c>
       <c r="D12" t="n">
-        <v>2063.8671508449</v>
+        <v>-1366069424529473536</v>
       </c>
       <c r="E12" t="n">
-        <v>40786.5361442434</v>
+        <v>893224785484654208</v>
       </c>
       <c r="F12" t="n">
-        <v>48890.751328738</v>
+        <v>1366069424529522176</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
@@ -695,19 +695,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>25309.4363758488</v>
+        <v>25710.1676218928</v>
       </c>
       <c r="C13" t="n">
-        <v>11379.7275103283</v>
+        <v>-12583070490542616576</v>
       </c>
       <c r="D13" t="n">
-        <v>2778.84807249415</v>
+        <v>-19244145643029131264</v>
       </c>
       <c r="E13" t="n">
-        <v>43874.6235351918</v>
+        <v>12583070490542669824</v>
       </c>
       <c r="F13" t="n">
-        <v>52475.502973026</v>
+        <v>19244145643029188608</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
@@ -721,19 +721,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>21509.8506027278</v>
+        <v>21806.3496068126</v>
       </c>
       <c r="C14" t="n">
-        <v>8098.70829532195</v>
+        <v>-202002998782484611072</v>
       </c>
       <c r="D14" t="n">
-        <v>-711.490012857905</v>
+        <v>-308936926946447851520</v>
       </c>
       <c r="E14" t="n">
-        <v>41384.4298371676</v>
+        <v>202002998782484676608</v>
       </c>
       <c r="F14" t="n">
-        <v>50194.6281453474</v>
+        <v>308936926946447851520</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -747,19 +747,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>14388.1069173073</v>
+        <v>14678.187710645</v>
       </c>
       <c r="C15" t="n">
-        <v>-984.768508176225</v>
+        <v>-1627504829247985811456</v>
       </c>
       <c r="D15" t="n">
-        <v>-10127.5382999781</v>
+        <v>-2489053843600527851520</v>
       </c>
       <c r="E15" t="n">
-        <v>33557.4380081705</v>
+        <v>1627504829247985811456</v>
       </c>
       <c r="F15" t="n">
-        <v>42700.2077999724</v>
+        <v>2489053843600527851520</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -773,19 +773,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>19371.1847955834</v>
+        <v>19763.0772294228</v>
       </c>
       <c r="C16" t="n">
-        <v>3504.72982159395</v>
+        <v>-65906396247036946022400</v>
       </c>
       <c r="D16" t="n">
-        <v>-5958.93145205253</v>
+        <v>-100795134950441937272832</v>
       </c>
       <c r="E16" t="n">
-        <v>39259.2932153008</v>
+        <v>65906396247036946022400</v>
       </c>
       <c r="F16" t="n">
-        <v>48722.9544889472</v>
+        <v>100795134950441937272832</v>
       </c>
       <c r="G16" t="s">
         <v>8</v>
@@ -799,19 +799,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>26369.3753793245</v>
+        <v>26810.3401609516</v>
       </c>
       <c r="C17" t="n">
-        <v>9812.75230628581</v>
+        <v>-2350134244189586629591040</v>
       </c>
       <c r="D17" t="n">
-        <v>-1769.36261239885</v>
+        <v>-3594220163500354184413184</v>
       </c>
       <c r="E17" t="n">
-        <v>53571.0240912759</v>
+        <v>2350134244189586629591040</v>
       </c>
       <c r="F17" t="n">
-        <v>65153.1390099605</v>
+        <v>3594220163500354184413184</v>
       </c>
       <c r="G17" t="s">
         <v>8</v>
@@ -825,19 +825,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>32967.0994497721</v>
+        <v>33491.1434612513</v>
       </c>
       <c r="C18" t="n">
-        <v>11889.6550809135</v>
+        <v>-41644390603052192620347392</v>
       </c>
       <c r="D18" t="n">
-        <v>-3867.83683491409</v>
+        <v>-63689599337670932411973632</v>
       </c>
       <c r="E18" t="n">
-        <v>71422.876668122</v>
+        <v>41644390603052192620347392</v>
       </c>
       <c r="F18" t="n">
-        <v>87180.3685839495</v>
+        <v>63689599337670932411973632</v>
       </c>
       <c r="G18" t="s">
         <v>8</v>
@@ -851,19 +851,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>33229.3455758944</v>
+        <v>33733.0079535364</v>
       </c>
       <c r="C19" t="n">
-        <v>11092.4361157099</v>
+        <v>-614699430466205255947255808</v>
       </c>
       <c r="D19" t="n">
-        <v>-5478.59422774245</v>
+        <v>-940101652889062858840604672</v>
       </c>
       <c r="E19" t="n">
-        <v>73699.2790469884</v>
+        <v>614699430466205255947255808</v>
       </c>
       <c r="F19" t="n">
-        <v>90270.3093904408</v>
+        <v>940101652889062858840604672</v>
       </c>
       <c r="G19" t="s">
         <v>8</v>
@@ -877,19 +877,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>27163.589834114</v>
+        <v>27475.9187475657</v>
       </c>
       <c r="C20" t="n">
-        <v>8120.43977749354</v>
+        <v>-8088414281049045058946334720</v>
       </c>
       <c r="D20" t="n">
-        <v>-5624.87168638375</v>
+        <v>-12370162160551660386772844544</v>
       </c>
       <c r="E20" t="n">
-        <v>60051.462654444</v>
+        <v>8088414281049045058946334720</v>
       </c>
       <c r="F20" t="n">
-        <v>73796.7741183213</v>
+        <v>12370162160551660386772844544</v>
       </c>
       <c r="G20" t="s">
         <v>8</v>
@@ -903,19 +903,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>18539.9794235607</v>
+        <v>18794.4469635435</v>
       </c>
       <c r="C21" t="n">
-        <v>661.70269103136</v>
+        <v>-75407067076798923007676383232</v>
       </c>
       <c r="D21" t="n">
-        <v>-10265.9736806621</v>
+        <v>-115325157117275854828833079296</v>
       </c>
       <c r="E21" t="n">
-        <v>41947.446789423</v>
+        <v>75407067076798923007676383232</v>
       </c>
       <c r="F21" t="n">
-        <v>52875.1231611165</v>
+        <v>115325157117275854828833079296</v>
       </c>
       <c r="G21" t="s">
         <v>8</v>
@@ -929,19 +929,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>17532.8538741819</v>
+        <v>17761.0030409622</v>
       </c>
       <c r="C22" t="n">
-        <v>-1191.52200839873</v>
+        <v>-441291142429501472020616970240</v>
       </c>
       <c r="D22" t="n">
-        <v>-12389.0554922022</v>
+        <v>-674896562192414644326442729472</v>
       </c>
       <c r="E22" t="n">
-        <v>41113.766528787</v>
+        <v>441291142429501472020616970240</v>
       </c>
       <c r="F22" t="n">
-        <v>52311.3000125904</v>
+        <v>674896562192414644326442729472</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>19532.9028470515</v>
+        <v>19751.7258943894</v>
       </c>
       <c r="C23" t="n">
-        <v>-157.420558123519</v>
+        <v>-10082098447608654947406770601984</v>
       </c>
       <c r="D23" t="n">
-        <v>-11618.4589647135</v>
+        <v>-15419238973425792876916504526848</v>
       </c>
       <c r="E23" t="n">
-        <v>43143.4132753166</v>
+        <v>10082098447608654947406770601984</v>
       </c>
       <c r="F23" t="n">
-        <v>54604.4516819065</v>
+        <v>15419238973425792876916504526848</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,19 +981,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>22680.275046569</v>
+        <v>22986.4114240198</v>
       </c>
       <c r="C24" t="n">
-        <v>3340.30976420848</v>
+        <v>-142315743792548551905039949496320</v>
       </c>
       <c r="D24" t="n">
-        <v>-8378.3098897337</v>
+        <v>-217653147766934214768824604950528</v>
       </c>
       <c r="E24" t="n">
-        <v>47614.3087153745</v>
+        <v>142315743792548551905039949496320</v>
       </c>
       <c r="F24" t="n">
-        <v>59332.9283693167</v>
+        <v>217653147766934214768824604950528</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>24196.1816953998</v>
+        <v>24487.4645014332</v>
       </c>
       <c r="C25" t="n">
-        <v>3475.79495830616</v>
+        <v>-1674168618815779106176524215123968</v>
       </c>
       <c r="D25" t="n">
-        <v>-9328.35566578071</v>
+        <v>-2560419951211004178624640775618560</v>
       </c>
       <c r="E25" t="n">
-        <v>51851.027540472</v>
+        <v>1674168618815779106176524215123968</v>
       </c>
       <c r="F25" t="n">
-        <v>64655.1781645589</v>
+        <v>2560419951211004178624640775618560</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1033,19 +1033,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>21194.4523095599</v>
+        <v>21314.1921951004</v>
       </c>
       <c r="C26" t="n">
-        <v>1662.15980148477</v>
+        <v>-14525464956248872334597482319183872</v>
       </c>
       <c r="D26" t="n">
-        <v>-10555.3414596824</v>
+        <v>-22214781627494069454183246763917312</v>
       </c>
       <c r="E26" t="n">
-        <v>47820.9783310048</v>
+        <v>14525464956248872334597482319183872</v>
       </c>
       <c r="F26" t="n">
-        <v>60038.4795921719</v>
+        <v>22214781627494069454183246763917312</v>
       </c>
       <c r="G26" t="s">
         <v>8</v>
@@ -1059,19 +1059,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>14252.2291884929</v>
+        <v>14327.4427183029</v>
       </c>
       <c r="C27" t="n">
-        <v>-7250.1332332083</v>
+        <v>-121180941527449841311722839736320000</v>
       </c>
       <c r="D27" t="n">
-        <v>-19709.586764686</v>
+        <v>-185330257004153297775115311255650304</v>
       </c>
       <c r="E27" t="n">
-        <v>39822.8027332025</v>
+        <v>121180941527449841311722839736320000</v>
       </c>
       <c r="F27" t="n">
-        <v>52282.2562646802</v>
+        <v>185330257004153297775115311255650304</v>
       </c>
       <c r="G27" t="s">
         <v>8</v>
@@ -1085,19 +1085,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>19195.817267131</v>
+        <v>19256.6020922315</v>
       </c>
       <c r="C28" t="n">
-        <v>-2602.80697656356</v>
+        <v>-2100106305403860818717688141371670528</v>
       </c>
       <c r="D28" t="n">
-        <v>-15299.6029322164</v>
+        <v>-3211835428992569826655796467289030656</v>
       </c>
       <c r="E28" t="n">
-        <v>45366.8300134583</v>
+        <v>2100106305403860818717688141371670528</v>
       </c>
       <c r="F28" t="n">
-        <v>58063.6259691111</v>
+        <v>3211835428992569826655796467289030656</v>
       </c>
       <c r="G28" t="s">
         <v>8</v>
@@ -1111,19 +1111,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>26032.598754031</v>
+        <v>26071.1009247102</v>
       </c>
       <c r="C29" t="n">
-        <v>1248.87491554716</v>
+        <v>-43487584433946610736955280754441453568</v>
       </c>
       <c r="D29" t="n">
-        <v>-14886.9707346949</v>
+        <v>-66508521043364662115958641983148261376</v>
       </c>
       <c r="E29" t="n">
-        <v>62211.5509381166</v>
+        <v>43487584433946610736955280754441453568</v>
       </c>
       <c r="F29" t="n">
-        <v>78347.3965883587</v>
+        <v>66508521043364662115958641983148261376</v>
       </c>
       <c r="G29" t="s">
         <v>8</v>
@@ -1137,19 +1137,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>32501.7168199928</v>
+        <v>32573.2719119969</v>
       </c>
       <c r="C30" t="n">
-        <v>757.184944852779</v>
+        <v>-457551385178831698512245083448375508992</v>
       </c>
       <c r="D30" t="n">
-        <v>-20919.6116124949</v>
+        <v>-699764457504159489546669889187672489984</v>
       </c>
       <c r="E30" t="n">
-        <v>82654.0718125647</v>
+        <v>457551385178831698512245083448375508992</v>
       </c>
       <c r="F30" t="n">
-        <v>104330.868369912</v>
+        <v>699764457504159489546669889187672489984</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -1163,19 +1163,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>32851.1441011214</v>
+        <v>32929.5236453301</v>
       </c>
       <c r="C31" t="n">
-        <v>-124.394200990158</v>
+        <v>-3101038064281769734736624701426223808512</v>
       </c>
       <c r="D31" t="n">
-        <v>-22659.3164785634</v>
+        <v>-4742628454515003445245867522885054103552</v>
       </c>
       <c r="E31" t="n">
-        <v>85014.5688121368</v>
+        <v>3101038064281769734736624701426223808512</v>
       </c>
       <c r="F31" t="n">
-        <v>107549.49108971</v>
+        <v>4742628454515003445245867522885054103552</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
@@ -1189,19 +1189,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>27039.2890426814</v>
+        <v>27052.2051078698</v>
       </c>
       <c r="C32" t="n">
-        <v>-815.986318042407</v>
+        <v>-45761956956383203220974321641996412780544</v>
       </c>
       <c r="D32" t="n">
-        <v>-19312.4877257891</v>
+        <v>-69986873652226667508727865487645483204608</v>
       </c>
       <c r="E32" t="n">
-        <v>69065.4594588355</v>
+        <v>45761956956383203220974321641996412780544</v>
       </c>
       <c r="F32" t="n">
-        <v>87561.9608665821</v>
+        <v>69986873652226667508727865487645483204608</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>18409.832671236</v>
+        <v>18401.102430444</v>
       </c>
       <c r="C33" t="n">
-        <v>-4806.77305741509</v>
+        <v>-237557511457856221840731131955141568102400</v>
       </c>
       <c r="D33" t="n">
-        <v>-18629.2856264683</v>
+        <v>-363312861715789688787385642564814689533952</v>
       </c>
       <c r="E33" t="n">
-        <v>47415.9225378694</v>
+        <v>237557511457856221840731131955141568102400</v>
       </c>
       <c r="F33" t="n">
-        <v>61238.4351069227</v>
+        <v>363312861715789688787385642564814689533952</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
@@ -1241,19 +1241,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>17287.3831467092</v>
+        <v>17248.364981877</v>
       </c>
       <c r="C34" t="n">
-        <v>-6555.07424163476</v>
+        <v>-1743901034135458061106275673064749425229824</v>
       </c>
       <c r="D34" t="n">
-        <v>-20591.9007689544</v>
+        <v>-2667066477387639384471979481224426322657280</v>
       </c>
       <c r="E34" t="n">
-        <v>46477.318762023</v>
+        <v>1743901034135458061106275673064749425229824</v>
       </c>
       <c r="F34" t="n">
-        <v>60514.1452893426</v>
+        <v>2667066477387639384471979481224426322657280</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -1267,19 +1267,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>19199.4420826039</v>
+        <v>19121.1832054027</v>
       </c>
       <c r="C35" t="n">
-        <v>-5421.95989323055</v>
+        <v>-28998100433627770460247738433673885026091008</v>
       </c>
       <c r="D35" t="n">
-        <v>-19669.877081174</v>
+        <v>-44348767539317365349852653916423539579158528</v>
       </c>
       <c r="E35" t="n">
-        <v>48407.9526104236</v>
+        <v>28998100433627770460247738433673885026091008</v>
       </c>
       <c r="F35" t="n">
-        <v>62655.8697983671</v>
+        <v>44348767539317365349852653916423539579158528</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
@@ -1293,19 +1293,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>22370.1580344085</v>
+        <v>22299.0482662974</v>
       </c>
       <c r="C36" t="n">
-        <v>-2609.22219839505</v>
+        <v>-431702708664074837701608935224814032987881472</v>
       </c>
       <c r="D36" t="n">
-        <v>-16898.5521107293</v>
+        <v>-660232318198145290726325265820182504544403456</v>
       </c>
       <c r="E36" t="n">
-        <v>52785.2030280705</v>
+        <v>431702708664074837701608935224814032987881472</v>
       </c>
       <c r="F36" t="n">
-        <v>67241.1287829617</v>
+        <v>660232318198145290726325265820182504544403456</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
@@ -1319,19 +1319,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>23998.5986045891</v>
+        <v>23957.0795872767</v>
       </c>
       <c r="C37" t="n">
-        <v>-3534.02449146903</v>
+        <v>-2482587076494131367978245720342160110415511552</v>
       </c>
       <c r="D37" t="n">
-        <v>-20064.0055928457</v>
+        <v>-3796789289821004305301129233414825420930416640</v>
       </c>
       <c r="E37" t="n">
-        <v>58917.7307115379</v>
+        <v>2482587076494131367978245720342160110415511552</v>
       </c>
       <c r="F37" t="n">
-        <v>75447.7118129145</v>
+        <v>3796789289821004305301129233414825420930416640</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1345,19 +1345,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>21129.1056655216</v>
+        <v>21079.6117449158</v>
       </c>
       <c r="C38" t="n">
-        <v>-3557.99599590272</v>
+        <v>-21839216178047207706043888821932860000421543936</v>
       </c>
       <c r="D38" t="n">
-        <v>-18198.9196229437</v>
+        <v>-33400198876404348806225968311795996914305990656</v>
       </c>
       <c r="E38" t="n">
-        <v>52818.8454544605</v>
+        <v>21839216178047207706043888821932860000421543936</v>
       </c>
       <c r="F38" t="n">
-        <v>67682.0577554332</v>
+        <v>33400198876404348806225968311795996914305990656</v>
       </c>
       <c r="G38" t="s">
         <v>8</v>
@@ -1371,19 +1371,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>14204.4870871305</v>
+        <v>14135.2114490412</v>
       </c>
       <c r="C39" t="n">
-        <v>-12167.8326511837</v>
+        <v>-196486855057083835868582272395386346897351376896</v>
       </c>
       <c r="D39" t="n">
-        <v>-27230.5590026852</v>
+        <v>-300500713120952874278420850956030167502987198464</v>
       </c>
       <c r="E39" t="n">
-        <v>44740.5021511779</v>
+        <v>196486855057083835868582272395386346897351376896</v>
       </c>
       <c r="F39" t="n">
-        <v>59803.2285026794</v>
+        <v>300500713120952874278420850956030167502987198464</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
